--- a/public/assets/excel/uploaded/4.xlsx
+++ b/public/assets/excel/uploaded/4.xlsx
@@ -752,22 +752,22 @@
     <t>스탈리나 아크릴 3단 매니큐어 진열대</t>
   </si>
   <si>
+    <t>스탈리나 아크릴 7단 매니큐어 진열대</t>
+  </si>
+  <si>
+    <t>스탈리나 아크릴 5단 매니큐어 진열대</t>
+  </si>
+  <si>
+    <t>칸막이 화장품 정리함핑크</t>
+  </si>
+  <si>
+    <t>뷰티샵 칸막이 화장품 정리함그레이</t>
+  </si>
+  <si>
+    <t>뷰티샵 칸막이 화장품 정리함블루</t>
+  </si>
+  <si>
     <t>스탈리나 아크릴 6단 매니큐어 진열대</t>
-  </si>
-  <si>
-    <t>스탈리나 아크릴 7단 매니큐어 진열대</t>
-  </si>
-  <si>
-    <t>스탈리나 아크릴 5단 매니큐어 진열대</t>
-  </si>
-  <si>
-    <t>칸막이 화장품 정리함핑크</t>
-  </si>
-  <si>
-    <t>뷰티샵 칸막이 화장품 정리함그레이</t>
-  </si>
-  <si>
-    <t>뷰티샵 칸막이 화장품 정리함블루</t>
   </si>
   <si>
     <t>브라이트 아크릴 화장품 정리함36칸</t>
@@ -1800,7 +1800,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C501"/>
+  <dimension ref="A1:C499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4527,65 +4527,65 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="B248" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C248">
-        <v>9564</v>
+        <v>14257</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="B249" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C249">
-        <v>14257</v>
+        <v>27957</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="B250" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C250">
-        <v>27198</v>
+        <v>18583</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="B251" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C251">
-        <v>27957</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>2686</v>
+        <v>2688</v>
       </c>
       <c r="B252" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C252">
-        <v>18583</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="B253" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C253">
         <v>2910</v>
@@ -4593,538 +4593,538 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="B254" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C254">
-        <v>3049</v>
+        <v>16332</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="B255" t="s">
         <v>250</v>
       </c>
       <c r="C255">
-        <v>2910</v>
+        <v>13473</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="B256" t="s">
         <v>246</v>
       </c>
       <c r="C256">
-        <v>16332</v>
+        <v>11297</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="B257" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C257">
-        <v>13473</v>
+        <v>7755</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="B258" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C258">
-        <v>11297</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="B259" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C259">
-        <v>7755</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c r="B260" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C260">
-        <v>4744</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="B261" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C261">
-        <v>6705</v>
+        <v>11955</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>2696</v>
+        <v>2699</v>
       </c>
       <c r="B262" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C262">
-        <v>2986</v>
+        <v>15143</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="B263" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C263">
-        <v>11955</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>2699</v>
+        <v>2703</v>
       </c>
       <c r="B264" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C264">
-        <v>15143</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>2700</v>
+        <v>2704</v>
       </c>
       <c r="B265" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C265">
-        <v>1515</v>
+        <v>25503</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="B266" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C266">
-        <v>3507</v>
+        <v>598</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>2704</v>
+        <v>2706</v>
       </c>
       <c r="B267" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C267">
-        <v>25503</v>
+        <v>6216</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>2705</v>
+        <v>2709</v>
       </c>
       <c r="B268" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C268">
-        <v>598</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>2706</v>
+        <v>2711</v>
       </c>
       <c r="B269" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C269">
-        <v>6216</v>
+        <v>479</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>2709</v>
+        <v>2712</v>
       </c>
       <c r="B270" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C270">
-        <v>3109</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="B271" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C271">
-        <v>479</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>2712</v>
+        <v>2714</v>
       </c>
       <c r="B272" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C272">
-        <v>5419</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>2713</v>
+        <v>2718</v>
       </c>
       <c r="B273" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C273">
-        <v>5739</v>
+        <v>15939</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>2714</v>
+        <v>2719</v>
       </c>
       <c r="B274" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C274">
-        <v>3985</v>
+        <v>15939</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>2718</v>
+        <v>2720</v>
       </c>
       <c r="B275" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C275">
-        <v>15939</v>
+        <v>13230</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>2719</v>
+        <v>2721</v>
       </c>
       <c r="B276" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C276">
-        <v>15939</v>
+        <v>28691</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>2720</v>
+        <v>2722</v>
       </c>
       <c r="B277" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C277">
-        <v>13230</v>
+        <v>28691</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>2721</v>
+        <v>2723</v>
       </c>
       <c r="B278" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C278">
-        <v>28691</v>
+        <v>8781</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>2722</v>
+        <v>2724</v>
       </c>
       <c r="B279" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C279">
-        <v>28691</v>
+        <v>11065</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>2723</v>
+        <v>2725</v>
       </c>
       <c r="B280" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C280">
-        <v>8781</v>
+        <v>8568</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>2724</v>
+        <v>2726</v>
       </c>
       <c r="B281" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C281">
-        <v>11065</v>
+        <v>52439</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="B282" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C282">
-        <v>8568</v>
+        <v>11065</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>2726</v>
+        <v>2728</v>
       </c>
       <c r="B283" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C283">
-        <v>52439</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="B284" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C284">
-        <v>11065</v>
+        <v>225006</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>2728</v>
+        <v>2730</v>
       </c>
       <c r="B285" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C285">
-        <v>6390</v>
+        <v>19061</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>2729</v>
+        <v>2731</v>
       </c>
       <c r="B286" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C286">
-        <v>225006</v>
+        <v>345</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c r="B287" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C287">
-        <v>19061</v>
+        <v>226</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="B288" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C288">
-        <v>345</v>
+        <v>572</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="B289" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C289">
-        <v>226</v>
+        <v>63250</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c r="B290" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C290">
-        <v>572</v>
+        <v>25300</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="B291" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C291">
-        <v>63250</v>
+        <v>27600</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="B292" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C292">
-        <v>25300</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="B293" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C293">
-        <v>27600</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>2737</v>
+        <v>2739</v>
       </c>
       <c r="B294" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C294">
-        <v>2391</v>
+        <v>731</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>2738</v>
+        <v>2740</v>
       </c>
       <c r="B295" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C295">
-        <v>3294</v>
+        <v>9325</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>2739</v>
+        <v>2741</v>
       </c>
       <c r="B296" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C296">
-        <v>731</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>2740</v>
+        <v>2744</v>
       </c>
       <c r="B297" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C297">
-        <v>9325</v>
+        <v>52599</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>2741</v>
+        <v>2764</v>
       </c>
       <c r="B298" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C298">
-        <v>1009</v>
+        <v>27097</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>2744</v>
+        <v>2765</v>
       </c>
       <c r="B299" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C299">
-        <v>52599</v>
+        <v>7328</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="B300" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C300">
-        <v>27097</v>
+        <v>7328</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="B301" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C301">
-        <v>7328</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="B302" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C302">
         <v>7328</v>
@@ -5132,21 +5132,21 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="B303" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C303">
-        <v>8460</v>
+        <v>7328</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="B304" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C304">
         <v>7328</v>
@@ -5154,10 +5154,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="B305" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C305">
         <v>7328</v>
@@ -5165,10 +5165,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="B306" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C306">
         <v>7328</v>
@@ -5176,10 +5176,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="B307" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C307">
         <v>7328</v>
@@ -5187,10 +5187,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="B308" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C308">
         <v>7328</v>
@@ -5198,1385 +5198,1385 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="B309" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C309">
-        <v>7328</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="B310" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C310">
-        <v>7328</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="B311" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C311">
-        <v>4665</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="B312" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C312">
-        <v>4665</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="B313" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C313">
-        <v>8460</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c r="B314" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C314">
-        <v>5415</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="B315" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C315">
-        <v>6920</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="B316" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C316">
-        <v>5478</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="B317" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C317">
-        <v>4630</v>
+        <v>9159</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="B318" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C318">
-        <v>3580</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="B319" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C319">
-        <v>9159</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="B320" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C320">
-        <v>5870</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="B321" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C321">
-        <v>8957</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="B322" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C322">
-        <v>3429</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="B323" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C323">
-        <v>8337</v>
+        <v>7919</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="B324" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C324">
-        <v>4947</v>
+        <v>12107</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="B325" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C325">
-        <v>7919</v>
+        <v>9754</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="B326" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C326">
-        <v>12107</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="B327" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C327">
-        <v>9754</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="B328" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C328">
-        <v>3462</v>
+        <v>11397</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="B329" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C329">
-        <v>2933</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="B330" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C330">
-        <v>11397</v>
+        <v>11476</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="B331" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C331">
-        <v>1070</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="B332" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C332">
-        <v>11476</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c r="B333" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C333">
-        <v>4942</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="B334" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C334">
-        <v>2511</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="B335" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C335">
-        <v>2391</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="B336" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C336">
-        <v>2657</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="B337" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C337">
-        <v>2537</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="B338" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C338">
-        <v>2856</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="B339" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C339">
-        <v>1276</v>
+        <v>7704</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>2806</v>
+        <v>2808</v>
       </c>
       <c r="B340" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C340">
-        <v>2870</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="B341" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C341">
-        <v>7704</v>
+        <v>6682</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="B342" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C342">
-        <v>2152</v>
+        <v>319</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="B343" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C343">
-        <v>6682</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="B344" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C344">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="B345" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C345">
-        <v>1047</v>
+        <v>17940</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="B346" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C346">
-        <v>306</v>
+        <v>8927</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="B347" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C347">
-        <v>17940</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="B348" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C348">
-        <v>8927</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="B349" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C349">
-        <v>7173</v>
+        <v>17852</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>2816</v>
+        <v>2818</v>
       </c>
       <c r="B350" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C350">
-        <v>2192</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="B351" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C351">
-        <v>17852</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="B352" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C352">
-        <v>3667</v>
+        <v>546</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="B353" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C353">
-        <v>4782</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="B354" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C354">
-        <v>546</v>
+        <v>611</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="B355" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C355">
-        <v>1276</v>
+        <v>797</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="B356" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C356">
-        <v>611</v>
+        <v>6522</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="B357" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C357">
-        <v>797</v>
+        <v>870</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="B358" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C358">
-        <v>6522</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="B359" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C359">
-        <v>870</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="B360" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C360">
-        <v>1698</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="B361" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C361">
-        <v>2484</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="B362" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C362">
-        <v>7770</v>
+        <v>541</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="B363" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C363">
-        <v>2335</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="B364" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C364">
-        <v>541</v>
+        <v>242</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="B365" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C365">
-        <v>2657</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="B366" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C366">
-        <v>242</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="B367" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C367">
-        <v>2870</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="B368" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C368">
-        <v>4251</v>
+        <v>506</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="B369" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C369">
-        <v>1993</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="B370" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C370">
-        <v>506</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="B371" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C371">
-        <v>1063</v>
+        <v>692</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="B372" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C372">
-        <v>5313</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="B373" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C373">
-        <v>692</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>2840</v>
+        <v>2842</v>
       </c>
       <c r="B374" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C374">
-        <v>2325</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="B375" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C375">
-        <v>1993</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="B376" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C376">
-        <v>3726</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="B377" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C377">
-        <v>2870</v>
+        <v>505</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="B378" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C378">
-        <v>7314</v>
+        <v>909</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>2845</v>
+        <v>2848</v>
       </c>
       <c r="B379" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C379">
-        <v>505</v>
+        <v>372</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="B380" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C380">
-        <v>909</v>
+        <v>7912</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="B381" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C381">
-        <v>372</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="B382" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C382">
-        <v>7912</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="B383" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C383">
-        <v>5647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="B384" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C384">
-        <v>2933</v>
+        <v>771</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="B385" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C385">
-        <v>692</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="B386" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C386">
-        <v>771</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="B387" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C387">
-        <v>1820</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="B388" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C388">
-        <v>2312</v>
+        <v>10521</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="B389" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C389">
-        <v>2458</v>
+        <v>943</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="B390" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C390">
-        <v>10521</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="B391" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C391">
-        <v>943</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="B392" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C392">
-        <v>3726</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="B393" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C393">
-        <v>3531</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="B394" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C394">
-        <v>1594</v>
+        <v>797</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="B395" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C395">
-        <v>4520</v>
+        <v>598</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="B396" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C396">
-        <v>797</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="B397" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C397">
-        <v>598</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="B398" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C398">
-        <v>1311</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="B399" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C399">
-        <v>5095</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="B400" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C400">
-        <v>2392</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="B401" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C401">
-        <v>7970</v>
+        <v>8767</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="B402" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C402">
-        <v>6376</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>2870</v>
+        <v>2873</v>
       </c>
       <c r="B403" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C403">
-        <v>8767</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="B404" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C404">
-        <v>4782</v>
+        <v>13814</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="B405" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C405">
-        <v>1169</v>
+        <v>334</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="B406" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C406">
-        <v>13814</v>
+        <v>840</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="B407" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C407">
-        <v>334</v>
+        <v>884</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>2876</v>
+        <v>2879</v>
       </c>
       <c r="B408" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C408">
-        <v>840</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>2877</v>
+        <v>2880</v>
       </c>
       <c r="B409" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C409">
-        <v>884</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="B410" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C410">
-        <v>2926</v>
+        <v>21666</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>2880</v>
+        <v>2882</v>
       </c>
       <c r="B411" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C411">
-        <v>4168</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="B412" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C412">
-        <v>21666</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>2882</v>
+        <v>2884</v>
       </c>
       <c r="B413" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C413">
-        <v>1932</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c r="B414" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C414">
-        <v>1698</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c r="B415" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C415">
-        <v>1380</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="B416" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C416">
-        <v>2015</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="B417" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C417">
-        <v>1615</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>2887</v>
+        <v>2889</v>
       </c>
       <c r="B418" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C418">
-        <v>1781</v>
+        <v>7413</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="B419" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C419">
-        <v>7363</v>
+        <v>7413</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>2889</v>
+        <v>2891</v>
       </c>
       <c r="B420" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C420">
-        <v>7413</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>2890</v>
+        <v>2892</v>
       </c>
       <c r="B421" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C421">
-        <v>7413</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>2891</v>
+        <v>2893</v>
       </c>
       <c r="B422" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C422">
-        <v>7666</v>
+        <v>12322</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="B423" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C423">
-        <v>7666</v>
+        <v>14637</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>2893</v>
+        <v>2895</v>
       </c>
       <c r="B424" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C424">
-        <v>12322</v>
+        <v>16370</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>2894</v>
+        <v>2896</v>
       </c>
       <c r="B425" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C425">
-        <v>14637</v>
+        <v>17698</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>2895</v>
+        <v>2897</v>
       </c>
       <c r="B426" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C426">
-        <v>16370</v>
+        <v>18318</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>2896</v>
+        <v>2898</v>
       </c>
       <c r="B427" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C427">
-        <v>17698</v>
+        <v>18318</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="B428" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C428">
-        <v>18318</v>
+        <v>23112</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>2898</v>
+        <v>2900</v>
       </c>
       <c r="B429" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C429">
-        <v>18318</v>
+        <v>24035</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>2899</v>
+        <v>2902</v>
       </c>
       <c r="B430" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C430">
-        <v>23112</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>2900</v>
+        <v>2949</v>
       </c>
       <c r="B431" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C431">
-        <v>24035</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>2902</v>
+        <v>2950</v>
       </c>
       <c r="B432" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C432">
-        <v>3028</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="B433" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C433">
-        <v>3871</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="B434" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C434">
         <v>4441</v>
@@ -6584,10 +6584,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="B435" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C435">
         <v>4441</v>
@@ -6595,10 +6595,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="B436" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C436">
         <v>4441</v>
@@ -6606,10 +6606,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="B437" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C437">
         <v>4441</v>
@@ -6617,10 +6617,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="B438" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C438">
         <v>4441</v>
@@ -6628,10 +6628,10 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="B439" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C439">
         <v>4441</v>
@@ -6639,10 +6639,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>2956</v>
+        <v>2958</v>
       </c>
       <c r="B440" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C440">
         <v>4441</v>
@@ -6650,10 +6650,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="B441" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C441">
         <v>4441</v>
@@ -6661,10 +6661,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="B442" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C442">
         <v>4441</v>
@@ -6672,40 +6672,40 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>2959</v>
+        <v>2961</v>
       </c>
       <c r="B443" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C443">
-        <v>4441</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>2960</v>
+        <v>2973</v>
       </c>
       <c r="B444" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C444">
-        <v>4441</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>2961</v>
+        <v>2974</v>
       </c>
       <c r="B445" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C445">
-        <v>6604</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>2973</v>
+        <v>2975</v>
       </c>
       <c r="B446" t="s">
         <v>430</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>2974</v>
+        <v>2976</v>
       </c>
       <c r="B447" t="s">
         <v>430</v>
@@ -6727,384 +6727,384 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="B448" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C448">
-        <v>2250</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>2976</v>
+        <v>2978</v>
       </c>
       <c r="B449" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C449">
-        <v>2250</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="B450" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C450">
-        <v>1518</v>
+        <v>828</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>2978</v>
+        <v>2980</v>
       </c>
       <c r="B451" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C451">
-        <v>1905</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>2979</v>
+        <v>2981</v>
       </c>
       <c r="B452" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C452">
-        <v>828</v>
+        <v>870</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>2980</v>
+        <v>2982</v>
       </c>
       <c r="B453" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C453">
-        <v>1035</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>2981</v>
+        <v>2983</v>
       </c>
       <c r="B454" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C454">
-        <v>870</v>
+        <v>925</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>2982</v>
+        <v>2984</v>
       </c>
       <c r="B455" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C455">
-        <v>1615</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>2983</v>
+        <v>2985</v>
       </c>
       <c r="B456" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C456">
-        <v>925</v>
+        <v>14599</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="B457" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C457">
-        <v>1091</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>2985</v>
+        <v>2987</v>
       </c>
       <c r="B458" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C458">
-        <v>14599</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>2986</v>
+        <v>2988</v>
       </c>
       <c r="B459" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C459">
-        <v>4871</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>2987</v>
+        <v>2989</v>
       </c>
       <c r="B460" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C460">
-        <v>3517</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>2988</v>
+        <v>2999</v>
       </c>
       <c r="B461" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C461">
-        <v>5048</v>
+        <v>322</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>2989</v>
+        <v>3000</v>
       </c>
       <c r="B462" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C462">
-        <v>4592</v>
+        <v>465</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>2999</v>
+        <v>3002</v>
       </c>
       <c r="B463" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C463">
-        <v>322</v>
+        <v>529</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="B464" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C464">
-        <v>465</v>
+        <v>541</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>3002</v>
+        <v>3004</v>
       </c>
       <c r="B465" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C465">
-        <v>529</v>
+        <v>665</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>3003</v>
+        <v>3005</v>
       </c>
       <c r="B466" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C466">
-        <v>541</v>
+        <v>665</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>3004</v>
+        <v>3006</v>
       </c>
       <c r="B467" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C467">
-        <v>665</v>
+        <v>692</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="B468" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C468">
-        <v>665</v>
+        <v>903</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="B469" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C469">
-        <v>692</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="B470" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C470">
-        <v>903</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>3008</v>
+        <v>3011</v>
       </c>
       <c r="B471" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C471">
-        <v>1196</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="B472" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C472">
-        <v>1329</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="B473" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C473">
-        <v>1528</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="B474" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C474">
-        <v>1594</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="B475" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C475">
-        <v>1594</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>3014</v>
+        <v>3016</v>
       </c>
       <c r="B476" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C476">
-        <v>1754</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="B477" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C477">
-        <v>2001</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="B478" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C478">
-        <v>2082</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="B479" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C479">
-        <v>2152</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="B480" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C480">
-        <v>2152</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="B481" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C481">
-        <v>2286</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>3020</v>
+        <v>3022</v>
       </c>
       <c r="B482" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C482">
         <v>2392</v>
@@ -7112,109 +7112,109 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="B483" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C483">
-        <v>2392</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="B484" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C484">
-        <v>2392</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>3023</v>
+        <v>3025</v>
       </c>
       <c r="B485" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C485">
-        <v>2631</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="B486" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C486">
-        <v>2631</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="B487" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C487">
-        <v>2870</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="B488" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C488">
-        <v>2949</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="B489" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C489">
-        <v>3109</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>3028</v>
+        <v>3030</v>
       </c>
       <c r="B490" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C490">
-        <v>3109</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>3029</v>
+        <v>3031</v>
       </c>
       <c r="B491" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C491">
-        <v>3162</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="B492" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C492">
         <v>3188</v>
@@ -7222,10 +7222,10 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>3031</v>
+        <v>3033</v>
       </c>
       <c r="B493" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C493">
         <v>3188</v>
@@ -7233,89 +7233,67 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="B494" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C494">
-        <v>3188</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="B495" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C495">
-        <v>3188</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>3034</v>
+        <v>3036</v>
       </c>
       <c r="B496" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C496">
-        <v>3334</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>3035</v>
+        <v>3037</v>
       </c>
       <c r="B497" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C497">
-        <v>3348</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="B498" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C498">
-        <v>3667</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>3037</v>
+        <v>3039</v>
       </c>
       <c r="B499" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C499">
-        <v>3825</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3">
-      <c r="A500">
-        <v>3038</v>
-      </c>
-      <c r="B500" t="s">
-        <v>480</v>
-      </c>
-      <c r="C500">
-        <v>4304</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3">
-      <c r="A501">
-        <v>3039</v>
-      </c>
-      <c r="B501" t="s">
-        <v>481</v>
-      </c>
-      <c r="C501">
         <v>4384</v>
       </c>
     </row>
